--- a/data/raw/country_info/ctry_info.xlsx
+++ b/data/raw/country_info/ctry_info.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maternaj\Documents\TRR\A01\orbis_country_coverage\data\county_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maternaj\Documents\TRR\A01\Repositories\disclosure_regulation_around_the_world\data\raw\country_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7511A17-99E8-4822-88D6-010904F6A7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C014DC-A158-4FEA-ADFD-6EDCB95AD45E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$194</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="946">
   <si>
     <t>ctry_name</t>
   </si>
@@ -2852,6 +2855,12 @@
   </si>
   <si>
     <t>iso3</t>
+  </si>
+  <si>
+    <t>oecd</t>
+  </si>
+  <si>
+    <t>european_union</t>
   </si>
 </sst>
 </file>
@@ -3238,15 +3247,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>942</v>
       </c>
@@ -3271,8 +3280,14 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3297,8 +3312,14 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3323,8 +3344,14 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3349,8 +3376,14 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3375,8 +3408,14 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3401,8 +3440,14 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3427,8 +3472,14 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3453,8 +3504,14 @@
       <c r="H8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3479,8 +3536,14 @@
       <c r="H9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3505,8 +3568,14 @@
       <c r="H10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3531,8 +3600,14 @@
       <c r="H11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3557,8 +3632,14 @@
       <c r="H12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3583,8 +3664,14 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3609,8 +3696,14 @@
       <c r="H14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -3635,8 +3728,14 @@
       <c r="H15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -3661,8 +3760,14 @@
       <c r="H16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -3687,8 +3792,14 @@
       <c r="H17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -3713,8 +3824,14 @@
       <c r="H18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3739,8 +3856,14 @@
       <c r="H19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -3765,8 +3888,14 @@
       <c r="H20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -3791,8 +3920,14 @@
       <c r="H21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -3817,8 +3952,14 @@
       <c r="H22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -3843,8 +3984,14 @@
       <c r="H23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3869,8 +4016,14 @@
       <c r="H24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -3895,8 +4048,14 @@
       <c r="H25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -3921,8 +4080,14 @@
       <c r="H26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -3947,8 +4112,14 @@
       <c r="H27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -3973,8 +4144,14 @@
       <c r="H28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -3999,8 +4176,14 @@
       <c r="H29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -4025,8 +4208,14 @@
       <c r="H30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>157</v>
       </c>
@@ -4051,8 +4240,14 @@
       <c r="H31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -4077,8 +4272,14 @@
       <c r="H32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -4103,8 +4304,14 @@
       <c r="H33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -4129,8 +4336,14 @@
       <c r="H34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -4155,8 +4368,14 @@
       <c r="H35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -4181,8 +4400,14 @@
       <c r="H36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -4207,8 +4432,14 @@
       <c r="H37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -4233,8 +4464,14 @@
       <c r="H38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>197</v>
       </c>
@@ -4259,8 +4496,14 @@
       <c r="H39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -4285,8 +4528,14 @@
       <c r="H40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -4311,8 +4560,14 @@
       <c r="H41" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -4337,8 +4592,14 @@
       <c r="H42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>216</v>
       </c>
@@ -4363,8 +4624,14 @@
       <c r="H43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>221</v>
       </c>
@@ -4389,8 +4656,14 @@
       <c r="H44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -4415,8 +4688,14 @@
       <c r="H45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -4441,8 +4720,14 @@
       <c r="H46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>235</v>
       </c>
@@ -4467,8 +4752,14 @@
       <c r="H47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -4493,8 +4784,14 @@
       <c r="H48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -4519,8 +4816,14 @@
       <c r="H49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -4545,8 +4848,14 @@
       <c r="H50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -4571,8 +4880,14 @@
       <c r="H51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>259</v>
       </c>
@@ -4597,8 +4912,14 @@
       <c r="H52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>264</v>
       </c>
@@ -4623,8 +4944,14 @@
       <c r="H53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>269</v>
       </c>
@@ -4649,8 +4976,14 @@
       <c r="H54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -4675,8 +5008,14 @@
       <c r="H55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>278</v>
       </c>
@@ -4701,8 +5040,14 @@
       <c r="H56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>283</v>
       </c>
@@ -4727,8 +5072,14 @@
       <c r="H57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>288</v>
       </c>
@@ -4753,8 +5104,14 @@
       <c r="H58" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -4779,8 +5136,14 @@
       <c r="H59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -4805,8 +5168,14 @@
       <c r="H60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>303</v>
       </c>
@@ -4831,8 +5200,14 @@
       <c r="H61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>308</v>
       </c>
@@ -4857,8 +5232,14 @@
       <c r="H62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -4883,8 +5264,14 @@
       <c r="H63" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -4909,8 +5296,14 @@
       <c r="H64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -4935,8 +5328,14 @@
       <c r="H65" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>328</v>
       </c>
@@ -4961,8 +5360,14 @@
       <c r="H66" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -4987,8 +5392,14 @@
       <c r="H67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>338</v>
       </c>
@@ -5013,8 +5424,14 @@
       <c r="H68" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>343</v>
       </c>
@@ -5039,8 +5456,14 @@
       <c r="H69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>348</v>
       </c>
@@ -5065,8 +5488,14 @@
       <c r="H70" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>353</v>
       </c>
@@ -5091,8 +5520,14 @@
       <c r="H71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>358</v>
       </c>
@@ -5117,8 +5552,14 @@
       <c r="H72" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>363</v>
       </c>
@@ -5143,8 +5584,14 @@
       <c r="H73" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>368</v>
       </c>
@@ -5169,8 +5616,14 @@
       <c r="H74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -5195,8 +5648,14 @@
       <c r="H75" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>378</v>
       </c>
@@ -5221,8 +5680,14 @@
       <c r="H76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>383</v>
       </c>
@@ -5247,8 +5712,14 @@
       <c r="H77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>388</v>
       </c>
@@ -5273,8 +5744,14 @@
       <c r="H78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>393</v>
       </c>
@@ -5299,8 +5776,14 @@
       <c r="H79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>398</v>
       </c>
@@ -5325,8 +5808,14 @@
       <c r="H80" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>403</v>
       </c>
@@ -5351,8 +5840,14 @@
       <c r="H81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>408</v>
       </c>
@@ -5377,8 +5872,14 @@
       <c r="H82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>413</v>
       </c>
@@ -5403,8 +5904,14 @@
       <c r="H83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>418</v>
       </c>
@@ -5429,8 +5936,14 @@
       <c r="H84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>423</v>
       </c>
@@ -5455,8 +5968,14 @@
       <c r="H85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>428</v>
       </c>
@@ -5481,8 +6000,14 @@
       <c r="H86" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>433</v>
       </c>
@@ -5507,8 +6032,14 @@
       <c r="H87" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>438</v>
       </c>
@@ -5533,8 +6064,14 @@
       <c r="H88" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>443</v>
       </c>
@@ -5559,8 +6096,14 @@
       <c r="H89" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>447</v>
       </c>
@@ -5585,8 +6128,14 @@
       <c r="H90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -5611,8 +6160,14 @@
       <c r="H91" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>456</v>
       </c>
@@ -5637,8 +6192,14 @@
       <c r="H92" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>461</v>
       </c>
@@ -5663,8 +6224,14 @@
       <c r="H93" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>466</v>
       </c>
@@ -5689,8 +6256,14 @@
       <c r="H94" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>471</v>
       </c>
@@ -5715,8 +6288,14 @@
       <c r="H95" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>476</v>
       </c>
@@ -5741,8 +6320,14 @@
       <c r="H96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>481</v>
       </c>
@@ -5767,8 +6352,14 @@
       <c r="H97" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>486</v>
       </c>
@@ -5793,8 +6384,14 @@
       <c r="H98" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>491</v>
       </c>
@@ -5819,8 +6416,14 @@
       <c r="H99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>495</v>
       </c>
@@ -5845,8 +6448,14 @@
       <c r="H100" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>500</v>
       </c>
@@ -5871,8 +6480,14 @@
       <c r="H101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>505</v>
       </c>
@@ -5897,8 +6512,14 @@
       <c r="H102" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>509</v>
       </c>
@@ -5923,8 +6544,14 @@
       <c r="H103" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>514</v>
       </c>
@@ -5949,8 +6576,14 @@
       <c r="H104" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>518</v>
       </c>
@@ -5975,8 +6608,14 @@
       <c r="H105" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>523</v>
       </c>
@@ -6001,8 +6640,14 @@
       <c r="H106" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>527</v>
       </c>
@@ -6027,8 +6672,14 @@
       <c r="H107" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>532</v>
       </c>
@@ -6053,8 +6704,14 @@
       <c r="H108" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>537</v>
       </c>
@@ -6079,8 +6736,14 @@
       <c r="H109" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>541</v>
       </c>
@@ -6105,8 +6768,14 @@
       <c r="H110" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>545</v>
       </c>
@@ -6131,8 +6800,14 @@
       <c r="H111" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>550</v>
       </c>
@@ -6157,8 +6832,14 @@
       <c r="H112" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>555</v>
       </c>
@@ -6183,8 +6864,14 @@
       <c r="H113" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>560</v>
       </c>
@@ -6209,8 +6896,14 @@
       <c r="H114" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>565</v>
       </c>
@@ -6235,8 +6928,14 @@
       <c r="H115" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>570</v>
       </c>
@@ -6261,8 +6960,14 @@
       <c r="H116" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>575</v>
       </c>
@@ -6287,8 +6992,14 @@
       <c r="H117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>581</v>
       </c>
@@ -6313,8 +7024,14 @@
       <c r="H118" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>586</v>
       </c>
@@ -6339,8 +7056,14 @@
       <c r="H119" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>591</v>
       </c>
@@ -6365,8 +7088,14 @@
       <c r="H120" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>596</v>
       </c>
@@ -6391,8 +7120,14 @@
       <c r="H121" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>601</v>
       </c>
@@ -6417,8 +7152,14 @@
       <c r="H122" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>606</v>
       </c>
@@ -6443,8 +7184,14 @@
       <c r="H123" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>611</v>
       </c>
@@ -6469,8 +7216,14 @@
       <c r="H124" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>616</v>
       </c>
@@ -6495,8 +7248,14 @@
       <c r="H125" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>621</v>
       </c>
@@ -6521,8 +7280,14 @@
       <c r="H126" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>626</v>
       </c>
@@ -6547,8 +7312,14 @@
       <c r="H127" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>631</v>
       </c>
@@ -6573,8 +7344,14 @@
       <c r="H128" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>636</v>
       </c>
@@ -6599,8 +7376,14 @@
       <c r="H129" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>640</v>
       </c>
@@ -6625,8 +7408,14 @@
       <c r="H130" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>645</v>
       </c>
@@ -6651,8 +7440,14 @@
       <c r="H131" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>650</v>
       </c>
@@ -6677,8 +7472,14 @@
       <c r="H132" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>655</v>
       </c>
@@ -6703,8 +7504,14 @@
       <c r="H133" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>659</v>
       </c>
@@ -6729,8 +7536,14 @@
       <c r="H134" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>664</v>
       </c>
@@ -6755,8 +7568,14 @@
       <c r="H135" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>669</v>
       </c>
@@ -6781,8 +7600,14 @@
       <c r="H136" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>674</v>
       </c>
@@ -6807,8 +7632,14 @@
       <c r="H137" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>679</v>
       </c>
@@ -6833,8 +7664,14 @@
       <c r="H138" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>684</v>
       </c>
@@ -6859,8 +7696,14 @@
       <c r="H139" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>689</v>
       </c>
@@ -6885,8 +7728,14 @@
       <c r="H140" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>694</v>
       </c>
@@ -6911,8 +7760,14 @@
       <c r="H141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>699</v>
       </c>
@@ -6937,8 +7792,14 @@
       <c r="H142" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>704</v>
       </c>
@@ -6963,8 +7824,14 @@
       <c r="H143" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>709</v>
       </c>
@@ -6989,8 +7856,14 @@
       <c r="H144" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>714</v>
       </c>
@@ -7015,8 +7888,14 @@
       <c r="H145" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>719</v>
       </c>
@@ -7041,8 +7920,14 @@
       <c r="H146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>723</v>
       </c>
@@ -7067,8 +7952,14 @@
       <c r="H147" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>728</v>
       </c>
@@ -7093,8 +7984,14 @@
       <c r="H148" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>733</v>
       </c>
@@ -7119,8 +8016,14 @@
       <c r="H149" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>738</v>
       </c>
@@ -7145,8 +8048,14 @@
       <c r="H150" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>743</v>
       </c>
@@ -7171,8 +8080,14 @@
       <c r="H151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>748</v>
       </c>
@@ -7197,8 +8112,14 @@
       <c r="H152" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>753</v>
       </c>
@@ -7223,8 +8144,14 @@
       <c r="H153" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>757</v>
       </c>
@@ -7249,8 +8176,14 @@
       <c r="H154" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>762</v>
       </c>
@@ -7275,8 +8208,14 @@
       <c r="H155" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>767</v>
       </c>
@@ -7301,8 +8240,14 @@
       <c r="H156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>771</v>
       </c>
@@ -7327,8 +8272,14 @@
       <c r="H157" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>775</v>
       </c>
@@ -7353,8 +8304,14 @@
       <c r="H158" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>780</v>
       </c>
@@ -7379,8 +8336,14 @@
       <c r="H159" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>785</v>
       </c>
@@ -7405,8 +8368,14 @@
       <c r="H160" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>789</v>
       </c>
@@ -7431,8 +8400,14 @@
       <c r="H161" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>794</v>
       </c>
@@ -7457,8 +8432,14 @@
       <c r="H162" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>798</v>
       </c>
@@ -7483,8 +8464,14 @@
       <c r="H163" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>803</v>
       </c>
@@ -7509,8 +8496,14 @@
       <c r="H164" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>808</v>
       </c>
@@ -7535,8 +8528,14 @@
       <c r="H165" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>812</v>
       </c>
@@ -7561,8 +8560,14 @@
       <c r="H166" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>817</v>
       </c>
@@ -7587,8 +8592,14 @@
       <c r="H167" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>822</v>
       </c>
@@ -7613,8 +8624,14 @@
       <c r="H168" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>827</v>
       </c>
@@ -7639,8 +8656,14 @@
       <c r="H169" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>832</v>
       </c>
@@ -7665,8 +8688,14 @@
       <c r="H170" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>837</v>
       </c>
@@ -7691,8 +8720,14 @@
       <c r="H171" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>842</v>
       </c>
@@ -7717,8 +8752,14 @@
       <c r="H172" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>846</v>
       </c>
@@ -7743,8 +8784,14 @@
       <c r="H173" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>850</v>
       </c>
@@ -7769,8 +8816,14 @@
       <c r="H174" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>854</v>
       </c>
@@ -7795,8 +8848,14 @@
       <c r="H175" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>858</v>
       </c>
@@ -7821,8 +8880,14 @@
       <c r="H176" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>863</v>
       </c>
@@ -7847,8 +8912,14 @@
       <c r="H177" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>868</v>
       </c>
@@ -7873,8 +8944,14 @@
       <c r="H178" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>872</v>
       </c>
@@ -7899,8 +8976,14 @@
       <c r="H179" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>876</v>
       </c>
@@ -7925,8 +9008,14 @@
       <c r="H180" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>880</v>
       </c>
@@ -7951,8 +9040,14 @@
       <c r="H181" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>884</v>
       </c>
@@ -7977,8 +9072,14 @@
       <c r="H182" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>888</v>
       </c>
@@ -8003,8 +9104,14 @@
       <c r="H183" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>893</v>
       </c>
@@ -8029,8 +9136,14 @@
       <c r="H184" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>897</v>
       </c>
@@ -8055,8 +9168,14 @@
       <c r="H185" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>901</v>
       </c>
@@ -8081,8 +9200,14 @@
       <c r="H186" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>905</v>
       </c>
@@ -8107,8 +9232,14 @@
       <c r="H187" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>909</v>
       </c>
@@ -8133,8 +9264,14 @@
       <c r="H188" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>913</v>
       </c>
@@ -8159,8 +9296,14 @@
       <c r="H189" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>918</v>
       </c>
@@ -8185,8 +9328,14 @@
       <c r="H190" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>923</v>
       </c>
@@ -8211,8 +9360,14 @@
       <c r="H191" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>928</v>
       </c>
@@ -8237,8 +9392,14 @@
       <c r="H192" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>933</v>
       </c>
@@ -8263,8 +9424,14 @@
       <c r="H193" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>938</v>
       </c>
@@ -8289,8 +9456,15 @@
       <c r="H194" t="s">
         <v>45</v>
       </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J194" xr:uid="{012FD559-8932-495C-8313-8B661C4F02F1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>